--- a/data/major_rules/diff.xlsx
+++ b/data/major_rules/diff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Reg-Stats\data\major_rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Documents\Projects\GW\Reg-Stats\data\major_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5683AE61-BFEC-47B1-8BF6-D91F31A7FD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="major_rules_by_presidential_yea" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Number of Major Rules by Presidential Year - GW Regulatory Studies Center</t>
   </si>
@@ -76,19 +91,31 @@
     <t>scraper</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>solved</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Jan 31 rule excluded from original</t>
+  </si>
+  <si>
+    <t>control num 113203 excluded from scraper</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -889,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1461,17 +1488,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1509,16 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1996</v>
       </c>
@@ -1503,10 +1533,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1997</v>
       </c>
@@ -1521,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1998</v>
       </c>
@@ -1536,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1999</v>
       </c>
@@ -1550,8 +1583,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -1566,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1581,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -1596,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2003</v>
       </c>
@@ -1611,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2004</v>
       </c>
@@ -1626,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -1641,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2007</v>
       </c>
@@ -1671,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -1686,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -1701,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -1897,7 +1936,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D28">
+  <autoFilter ref="A1:D28" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="FALSE"/>
